--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cad.local\dfsroot\HomeDirs\SP\joao.rosal\My Documents\research\reports\standalone\market_discipline\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cds" sheetId="1" r:id="rId1"/>
     <sheet name="VIX" sheetId="2" r:id="rId2"/>
     <sheet name="cds_consolidate" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -47,15 +42,16 @@
     <t>MX</t>
   </si>
   <si>
-    <t>o</t>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +82,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -94,6 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,6 +106,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>42370</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>Mexico CDS USD SR 5Y D14 Corp</stp>
+        <stp>last_price</stp>
+        <stp>01/01/2016</stp>
+        <stp>27/03/2017</stp>
+        <stp>[data.xlsx]cds!R3C5</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=T</stp>
+        <stp>Per=cd</stp>
+        <stp>DtFmt=D</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>cols=2;rows=322</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="bloomberg.rtd">
+      <tp>
+        <v>42370</v>
+        <stp/>
+        <stp>##V3_BDHV12</stp>
+        <stp>BRAZIL CDS USD SR 5Y D14 Corp</stp>
+        <stp>last_price</stp>
+        <stp>01/01/2016</stp>
+        <stp>27/03/2017</stp>
+        <stp>[data.xlsx]cds!R3C1</stp>
+        <stp>Dir=V</stp>
+        <stp>Dts=S</stp>
+        <stp>Sort=A</stp>
+        <stp>Quote=C</stp>
+        <stp>QtTyp=Y</stp>
+        <stp>Days=T</stp>
+        <stp>Per=cd</stp>
+        <stp>DtFmt=D</stp>
+        <stp>UseDPDF=Y</stp>
+        <stp>cols=2;rows=322</stp>
+        <tr r="A3" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J323"/>
+  <dimension ref="A1:J324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E324" activeCellId="1" sqref="A324 E324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,16 +484,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="e">
-        <f>_xll.BDH(A1,B2:B2,$J$3,$J$4,"Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","cols=2;rows=321")</f>
-        <v>#N/A</v>
+      <c r="A3" s="1">
+        <f ca="1">_xll.BDH(A1,B2:B2,$J$3,$J$4,"Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","cols=2;rows=322")</f>
+        <v>42370</v>
       </c>
       <c r="B3">
         <v>493.34100000000001</v>
       </c>
-      <c r="E3" s="1" t="e">
-        <f>_xll.BDH(E1,F2:F2,$J$3,$J$4,"Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","cols=2;rows=321")</f>
-        <v>#N/A</v>
+      <c r="E3" s="1">
+        <f ca="1">_xll.BDH(E1,F2:F2,$J$3,$J$4,"Dir=V","Dts=S","Sort=A","Quote=C","QtTyp=Y","Days=T","Per=cd","DtFmt=D","UseDPDF=Y","cols=2;rows=322")</f>
+        <v>42370</v>
       </c>
       <c r="F3">
         <v>170.202</v>
@@ -467,7 +517,7 @@
       </c>
       <c r="J4" s="1">
         <f ca="1">TODAY()</f>
-        <v>42818</v>
+        <v>42821</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4927,13 +4977,27 @@
         <v>42818</v>
       </c>
       <c r="B323">
-        <v>238.24199999999999</v>
+        <v>236.84899999999999</v>
       </c>
       <c r="E323" s="1">
         <v>42818</v>
       </c>
       <c r="F323">
-        <v>136.41</v>
+        <v>135.31</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="5">
+        <v>42821</v>
+      </c>
+      <c r="B324">
+        <v>236.303</v>
+      </c>
+      <c r="E324" s="5">
+        <v>42821</v>
+      </c>
+      <c r="F324">
+        <v>134.94999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +5010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1305"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1267" workbookViewId="0">
+      <selection activeCell="A1305" sqref="A1305"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20714,10 +20780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C322"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="F277" sqref="F277"/>
+    <sheetView topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24267,6 +24333,17 @@
         <v>136.41</v>
       </c>
     </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B323">
+        <v>238.24199999999999</v>
+      </c>
+      <c r="C323">
+        <v>136.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
